--- a/dcomtestcasegeneration/Source/dcom/bin/Debug/DB_Template/Template.xlsx
+++ b/dcomtestcasegeneration/Source/dcom/bin/Debug/DB_Template/Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\bosch.com\dfsrb\DfsVN\LOC\Hc\RBVH\20_EDA\04_External\00_Common\02_EDA2\db_BGSV_EDA2_Automation_Tool\DCOM\DB_Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99EB0520-5B1F-4924-95DA-481BCA43E9AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D54973E-8252-4451-BD6B-A6C5DE6B8F0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26595" yWindow="480" windowWidth="24855" windowHeight="15315" tabRatio="903" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="903" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Common_settings" sheetId="2" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="101">
   <si>
     <t>NRC</t>
   </si>
@@ -258,9 +258,6 @@
     <t>Selected_Service</t>
   </si>
   <si>
-    <t xml:space="preserve">Time_Out </t>
-  </si>
-  <si>
     <t>CanTP</t>
   </si>
   <si>
@@ -340,6 +337,18 @@
   </si>
   <si>
     <t>Allow Session</t>
+  </si>
+  <si>
+    <t>Invalid Value</t>
+  </si>
+  <si>
+    <t>Valid Value</t>
+  </si>
+  <si>
+    <t>DTC ID</t>
+  </si>
+  <si>
+    <t>d78687</t>
   </si>
 </sst>
 </file>
@@ -865,8 +874,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C62"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -886,66 +895,68 @@
         <v>27</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>70</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
+      <c r="C2" s="18" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
         <v>29</v>
       </c>
       <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
+      <c r="C3" s="18"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="19" t="s">
         <v>58</v>
       </c>
       <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
+      <c r="C4" s="18"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="19" t="s">
         <v>61</v>
       </c>
       <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
+      <c r="C5" s="18"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="19"/>
       <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
+      <c r="C6" s="18"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="19"/>
       <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
+      <c r="C7" s="18"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="19"/>
       <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
+      <c r="C8" s="18"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="19"/>
       <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
+      <c r="C9" s="18"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="19"/>
       <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
+      <c r="C10" s="18"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="19"/>
       <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
+      <c r="C11" s="18"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="20"/>
@@ -963,21 +974,21 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B21" s="22"/>
       <c r="C21" s="20"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B22" s="22"/>
       <c r="C22" s="20"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B23" s="22"/>
       <c r="C23" s="20"/>
@@ -1014,7 +1025,7 @@
     </row>
     <row r="30" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B30" s="10" t="s">
         <v>41</v>
@@ -1023,7 +1034,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B31" s="22"/>
       <c r="C31" s="20"/>
@@ -1058,19 +1069,19 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B41" s="22"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B42" s="22"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B43" s="22"/>
     </row>
@@ -1150,7 +1161,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B62" s="22"/>
     </row>
@@ -1259,7 +1270,7 @@
         <v>65</v>
       </c>
       <c r="P2" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q2" s="10" t="s">
         <v>31</v>
@@ -1352,7 +1363,7 @@
       </c>
       <c r="L5" s="7"/>
       <c r="N5" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O5" s="14"/>
       <c r="P5" s="14"/>
@@ -1375,7 +1386,7 @@
       </c>
       <c r="L6" s="7"/>
       <c r="N6" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O6" s="14"/>
       <c r="P6" s="14"/>
@@ -1734,7 +1745,7 @@
         <v>65</v>
       </c>
       <c r="P2" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q2" s="10" t="s">
         <v>31</v>
@@ -1757,7 +1768,7 @@
         <v>15</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="8" t="s">
@@ -1794,7 +1805,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="8" t="s">
@@ -1837,7 +1848,7 @@
       </c>
       <c r="L5" s="7"/>
       <c r="N5" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O5" s="14"/>
       <c r="P5" s="14"/>
@@ -1860,7 +1871,7 @@
       </c>
       <c r="L6" s="7"/>
       <c r="N6" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O6" s="14"/>
       <c r="P6" s="14"/>
@@ -2219,7 +2230,7 @@
         <v>65</v>
       </c>
       <c r="P2" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q2" s="10" t="s">
         <v>31</v>
@@ -2242,7 +2253,7 @@
         <v>15</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="8" t="s">
@@ -2279,7 +2290,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="8" t="s">
@@ -2322,7 +2333,7 @@
       </c>
       <c r="L5" s="7"/>
       <c r="N5" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O5" s="14"/>
       <c r="P5" s="14"/>
@@ -2345,7 +2356,7 @@
       </c>
       <c r="L6" s="7"/>
       <c r="N6" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O6" s="14"/>
       <c r="P6" s="14"/>
@@ -2704,7 +2715,7 @@
         <v>65</v>
       </c>
       <c r="P2" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q2" s="10" t="s">
         <v>31</v>
@@ -2727,7 +2738,7 @@
         <v>15</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="8" t="s">
@@ -2764,7 +2775,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="8" t="s">
@@ -2807,7 +2818,7 @@
       </c>
       <c r="L5" s="7"/>
       <c r="N5" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O5" s="14"/>
       <c r="P5" s="14"/>
@@ -2830,7 +2841,7 @@
       </c>
       <c r="L6" s="7"/>
       <c r="N6" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O6" s="14"/>
       <c r="P6" s="14"/>
@@ -3189,7 +3200,7 @@
         <v>65</v>
       </c>
       <c r="P2" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q2" s="10" t="s">
         <v>31</v>
@@ -3292,7 +3303,7 @@
       </c>
       <c r="L5" s="7"/>
       <c r="N5" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O5" s="14"/>
       <c r="P5" s="14"/>
@@ -3317,7 +3328,7 @@
       </c>
       <c r="L6" s="7"/>
       <c r="N6" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O6" s="14"/>
       <c r="P6" s="14"/>
@@ -3331,7 +3342,7 @@
       <c r="B7" s="9"/>
       <c r="E7" s="2"/>
       <c r="F7" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
@@ -3671,7 +3682,7 @@
         <v>65</v>
       </c>
       <c r="P2" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q2" s="10" t="s">
         <v>31</v>
@@ -3766,7 +3777,7 @@
       </c>
       <c r="L5" s="7"/>
       <c r="N5" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O5" s="14"/>
       <c r="P5" s="14"/>
@@ -3789,7 +3800,7 @@
       </c>
       <c r="L6" s="7"/>
       <c r="N6" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O6" s="14"/>
       <c r="P6" s="14"/>
@@ -4148,7 +4159,7 @@
         <v>65</v>
       </c>
       <c r="P2" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q2" s="10" t="s">
         <v>31</v>
@@ -4241,7 +4252,7 @@
       </c>
       <c r="L5" s="7"/>
       <c r="N5" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O5" s="14"/>
       <c r="P5" s="14"/>
@@ -4264,7 +4275,7 @@
       </c>
       <c r="L6" s="7"/>
       <c r="N6" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O6" s="14"/>
       <c r="P6" s="14"/>
@@ -4625,7 +4636,7 @@
         <v>65</v>
       </c>
       <c r="P2" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q2" s="10" t="s">
         <v>31</v>
@@ -4726,7 +4737,7 @@
       </c>
       <c r="L5" s="7"/>
       <c r="N5" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O5" s="14"/>
       <c r="P5" s="14"/>
@@ -4753,7 +4764,7 @@
       </c>
       <c r="L6" s="7"/>
       <c r="N6" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O6" s="14"/>
       <c r="P6" s="14"/>
@@ -5040,10 +5051,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:AD37"/>
+  <dimension ref="A1:Y37"/>
   <sheetViews>
     <sheetView topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AC3" sqref="AC3:AC5"/>
+      <selection activeCell="X1" sqref="X1:Y5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5065,14 +5076,16 @@
     <col min="20" max="20" width="10.7109375" style="6" customWidth="1"/>
     <col min="21" max="21" width="20.7109375" style="6" customWidth="1"/>
     <col min="22" max="22" width="20.140625" style="6" customWidth="1"/>
-    <col min="23" max="24" width="7.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="25" max="27" width="4.85546875" style="6" customWidth="1"/>
+    <col min="23" max="23" width="35.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="4.85546875" style="6" customWidth="1"/>
     <col min="28" max="28" width="8.7109375" style="6" customWidth="1"/>
     <col min="29" max="29" width="13.85546875" style="6" bestFit="1" customWidth="1"/>
     <col min="30" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="30" t="s">
         <v>14</v>
       </c>
@@ -5103,12 +5116,12 @@
         <v>59</v>
       </c>
       <c r="V1" s="29"/>
-      <c r="AC1" s="28" t="s">
-        <v>97</v>
-      </c>
-      <c r="AD1" s="29"/>
-    </row>
-    <row r="2" spans="1:30" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X1" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y1" s="29"/>
+    </row>
+    <row r="2" spans="1:25" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>67</v>
       </c>
@@ -5151,7 +5164,7 @@
         <v>65</v>
       </c>
       <c r="Q2" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R2" s="10" t="s">
         <v>31</v>
@@ -5165,14 +5178,14 @@
       <c r="V2" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="AC2" s="10" t="s">
+      <c r="X2" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="AD2" s="10" t="s">
+      <c r="Y2" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="15"/>
       <c r="B3" s="15"/>
       <c r="C3" s="15"/>
@@ -5202,12 +5215,12 @@
       <c r="W3" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="AC3" s="9" t="s">
+      <c r="X3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="AD3" s="7"/>
-    </row>
-    <row r="4" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y3" s="7"/>
+    </row>
+    <row r="4" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="15"/>
       <c r="B4" s="15"/>
       <c r="C4" s="15"/>
@@ -5237,12 +5250,12 @@
       <c r="W4" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="AC4" s="9" t="s">
+      <c r="X4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="AD4" s="7"/>
-    </row>
-    <row r="5" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y4" s="7"/>
+    </row>
+    <row r="5" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="15"/>
       <c r="B5" s="15"/>
       <c r="C5" s="15"/>
@@ -5259,7 +5272,7 @@
       </c>
       <c r="M5" s="7"/>
       <c r="O5" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="P5" s="14"/>
       <c r="Q5" s="14"/>
@@ -5267,12 +5280,12 @@
       <c r="S5" s="7"/>
       <c r="U5" s="9"/>
       <c r="V5" s="7"/>
-      <c r="AC5" s="9" t="s">
+      <c r="X5" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="AD5" s="7"/>
-    </row>
-    <row r="6" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y5" s="7"/>
+    </row>
+    <row r="6" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="15"/>
       <c r="B6" s="15"/>
       <c r="C6" s="15"/>
@@ -5289,7 +5302,7 @@
       </c>
       <c r="M6" s="7"/>
       <c r="O6" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="P6" s="14"/>
       <c r="Q6" s="14"/>
@@ -5298,7 +5311,7 @@
       <c r="U6" s="9"/>
       <c r="V6" s="7"/>
     </row>
-    <row r="7" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
       <c r="C7" s="15"/>
@@ -5322,7 +5335,7 @@
       <c r="U7" s="9"/>
       <c r="V7" s="7"/>
     </row>
-    <row r="8" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="15"/>
       <c r="B8" s="15"/>
       <c r="C8" s="15"/>
@@ -5346,7 +5359,7 @@
       <c r="U8" s="9"/>
       <c r="V8" s="7"/>
     </row>
-    <row r="9" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="15"/>
       <c r="B9" s="15"/>
       <c r="C9" s="15"/>
@@ -5370,7 +5383,7 @@
       <c r="U9" s="9"/>
       <c r="V9" s="7"/>
     </row>
-    <row r="10" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="15"/>
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
@@ -5394,7 +5407,7 @@
       <c r="U10" s="9"/>
       <c r="V10" s="7"/>
     </row>
-    <row r="11" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="15"/>
       <c r="B11" s="15"/>
       <c r="C11" s="15"/>
@@ -5418,7 +5431,7 @@
       <c r="U11" s="9"/>
       <c r="V11" s="7"/>
     </row>
-    <row r="12" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="15"/>
       <c r="B12" s="15"/>
       <c r="C12" s="15"/>
@@ -5442,7 +5455,7 @@
       <c r="U12" s="9"/>
       <c r="V12" s="7"/>
     </row>
-    <row r="13" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="15"/>
       <c r="B13" s="15"/>
       <c r="C13" s="15"/>
@@ -5466,7 +5479,7 @@
       <c r="U13" s="9"/>
       <c r="V13" s="7"/>
     </row>
-    <row r="14" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="15"/>
       <c r="B14" s="15"/>
       <c r="C14" s="15"/>
@@ -5490,7 +5503,7 @@
       <c r="U14" s="9"/>
       <c r="V14" s="7"/>
     </row>
-    <row r="15" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="15"/>
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
@@ -5514,7 +5527,7 @@
       <c r="U15" s="9"/>
       <c r="V15" s="7"/>
     </row>
-    <row r="16" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="15"/>
       <c r="B16" s="15"/>
       <c r="C16" s="15"/>
@@ -5784,7 +5797,7 @@
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="AC1:AD1"/>
+    <mergeCell ref="X1:Y1"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="F1:J1"/>
     <mergeCell ref="L1:M1"/>
@@ -5800,75 +5813,79 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:AD111"/>
+  <dimension ref="A1:Z111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AC3" sqref="AC3:AC5"/>
+    <sheetView topLeftCell="I1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="48.140625" style="5" customWidth="1"/>
     <col min="2" max="3" width="14.28515625" style="17" customWidth="1"/>
-    <col min="4" max="4" width="43.140625" style="17" customWidth="1"/>
-    <col min="5" max="5" width="6.85546875" style="6" customWidth="1"/>
-    <col min="6" max="6" width="23.140625" style="6" customWidth="1"/>
-    <col min="7" max="9" width="18.140625" style="6" customWidth="1"/>
-    <col min="10" max="10" width="20.28515625" style="6" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" style="6" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="6" customWidth="1"/>
-    <col min="13" max="13" width="12.5703125" style="6" customWidth="1"/>
-    <col min="14" max="14" width="6.28515625" style="6" customWidth="1"/>
-    <col min="15" max="17" width="18.7109375" style="6" customWidth="1"/>
-    <col min="18" max="18" width="14.28515625" style="6" customWidth="1"/>
-    <col min="19" max="19" width="18.5703125" style="6" customWidth="1"/>
-    <col min="20" max="20" width="10.7109375" style="6" customWidth="1"/>
-    <col min="21" max="21" width="20.7109375" style="6" customWidth="1"/>
-    <col min="22" max="22" width="20.140625" style="6" customWidth="1"/>
-    <col min="23" max="24" width="7.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="25" max="27" width="4.85546875" style="6" customWidth="1"/>
-    <col min="28" max="28" width="8.7109375" style="6" customWidth="1"/>
-    <col min="29" max="29" width="14.28515625" style="6" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="6"/>
+    <col min="4" max="4" width="35.85546875" style="17" customWidth="1"/>
+    <col min="5" max="5" width="23.85546875" style="17" customWidth="1"/>
+    <col min="6" max="6" width="6.85546875" style="6" customWidth="1"/>
+    <col min="7" max="7" width="23.140625" style="6" customWidth="1"/>
+    <col min="8" max="10" width="18.140625" style="6" customWidth="1"/>
+    <col min="11" max="11" width="20.28515625" style="6" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" style="6" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="6" customWidth="1"/>
+    <col min="14" max="14" width="12.5703125" style="6" customWidth="1"/>
+    <col min="15" max="15" width="6.28515625" style="6" customWidth="1"/>
+    <col min="16" max="18" width="18.7109375" style="6" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" style="6" customWidth="1"/>
+    <col min="20" max="20" width="18.5703125" style="6" customWidth="1"/>
+    <col min="21" max="21" width="10.7109375" style="6" customWidth="1"/>
+    <col min="22" max="22" width="20.7109375" style="6" customWidth="1"/>
+    <col min="23" max="23" width="20.140625" style="6" customWidth="1"/>
+    <col min="24" max="24" width="35.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="7.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="4.85546875" style="6" customWidth="1"/>
+    <col min="29" max="29" width="8.7109375" style="6" customWidth="1"/>
+    <col min="30" max="30" width="14.28515625" style="6" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="30" t="s">
         <v>14</v>
       </c>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
       <c r="D1" s="31"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="28" t="s">
+      <c r="E1" s="31"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="G1" s="29"/>
       <c r="H1" s="29"/>
       <c r="I1" s="29"/>
       <c r="J1" s="29"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="28" t="s">
+      <c r="K1" s="29"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="M1" s="29"/>
-      <c r="O1" s="28" t="s">
+      <c r="N1" s="29"/>
+      <c r="P1" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="P1" s="29"/>
       <c r="Q1" s="29"/>
       <c r="R1" s="29"/>
       <c r="S1" s="29"/>
-      <c r="U1" s="28" t="s">
+      <c r="T1" s="29"/>
+      <c r="V1" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="V1" s="29"/>
-      <c r="AC1" s="28" t="s">
-        <v>97</v>
-      </c>
-      <c r="AD1" s="29"/>
-    </row>
-    <row r="2" spans="1:30" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W1" s="29"/>
+      <c r="Y1" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z1" s="29"/>
+    </row>
+    <row r="2" spans="1:26" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>67</v>
       </c>
@@ -5879,670 +5896,708 @@
         <v>66</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="F2" s="12"/>
+      <c r="G2" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="H2" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="I2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="J2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="K2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="13"/>
-      <c r="L2" s="10" t="s">
+      <c r="L2" s="13"/>
+      <c r="M2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="10" t="s">
+      <c r="N2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="O2" s="10" t="s">
+      <c r="P2" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="P2" s="10" t="s">
+      <c r="Q2" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="Q2" s="10" t="s">
-        <v>91</v>
-      </c>
       <c r="R2" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="S2" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="S2" s="10" t="s">
+      <c r="T2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="U2" s="10" t="s">
+      <c r="V2" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="V2" s="10" t="s">
+      <c r="W2" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="AC2" s="10" t="s">
+      <c r="Y2" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="AD2" s="10" t="s">
+      <c r="Z2" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="15"/>
       <c r="B3" s="15"/>
       <c r="C3" s="15"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="7"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="2"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="9" t="s">
+      <c r="K3" s="7"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="M3" s="7"/>
-      <c r="O3" s="9" t="s">
+      <c r="N3" s="7"/>
+      <c r="P3" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="P3" s="14"/>
       <c r="Q3" s="14"/>
-      <c r="R3" s="7"/>
+      <c r="R3" s="14"/>
       <c r="S3" s="7"/>
-      <c r="U3" s="9" t="s">
+      <c r="T3" s="7"/>
+      <c r="V3" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="V3" s="7"/>
-      <c r="W3" s="6" t="s">
+      <c r="W3" s="7"/>
+      <c r="X3" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="AC3" s="9" t="s">
+      <c r="Y3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="AD3" s="7"/>
-    </row>
-    <row r="4" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z3" s="7"/>
+    </row>
+    <row r="4" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="15"/>
       <c r="B4" s="15"/>
       <c r="C4" s="15"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="7"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="2"/>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="9" t="s">
+      <c r="K4" s="7"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="M4" s="7"/>
-      <c r="O4" s="9" t="s">
+      <c r="N4" s="7"/>
+      <c r="P4" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="P4" s="14"/>
       <c r="Q4" s="14"/>
-      <c r="R4" s="7"/>
+      <c r="R4" s="14"/>
       <c r="S4" s="7"/>
-      <c r="U4" s="9" t="s">
+      <c r="T4" s="7"/>
+      <c r="V4" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="V4" s="7"/>
-      <c r="W4" s="6" t="s">
+      <c r="W4" s="7"/>
+      <c r="X4" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="AC4" s="9" t="s">
+      <c r="Y4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="AD4" s="7"/>
-    </row>
-    <row r="5" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z4" s="7"/>
+    </row>
+    <row r="5" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="15"/>
       <c r="B5" s="15"/>
       <c r="C5" s="15"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="7"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="2"/>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="9" t="s">
+      <c r="K5" s="7"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="M5" s="7"/>
-      <c r="O5" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="P5" s="14"/>
+      <c r="N5" s="7"/>
+      <c r="P5" s="9" t="s">
+        <v>95</v>
+      </c>
       <c r="Q5" s="14"/>
-      <c r="R5" s="7"/>
+      <c r="R5" s="14"/>
       <c r="S5" s="7"/>
-      <c r="U5" s="9"/>
-      <c r="V5" s="7"/>
-      <c r="AC5" s="9" t="s">
+      <c r="T5" s="7"/>
+      <c r="V5" s="9"/>
+      <c r="W5" s="7"/>
+      <c r="Y5" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="AD5" s="7"/>
-    </row>
-    <row r="6" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z5" s="7"/>
+    </row>
+    <row r="6" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="15"/>
       <c r="B6" s="15"/>
       <c r="C6" s="15"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="7"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="2"/>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="9" t="s">
+      <c r="K6" s="7"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="M6" s="7"/>
-      <c r="O6" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="P6" s="14"/>
+      <c r="N6" s="7"/>
+      <c r="P6" s="9" t="s">
+        <v>95</v>
+      </c>
       <c r="Q6" s="14"/>
-      <c r="R6" s="7"/>
+      <c r="R6" s="14"/>
       <c r="S6" s="7"/>
-      <c r="U6" s="9"/>
-      <c r="V6" s="7"/>
-    </row>
-    <row r="7" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T6" s="7"/>
+      <c r="V6" s="9"/>
+      <c r="W6" s="7"/>
+    </row>
+    <row r="7" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
       <c r="C7" s="15"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="7"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="2"/>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="9" t="s">
+      <c r="K7" s="7"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="M7" s="7"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="14"/>
+      <c r="N7" s="7"/>
+      <c r="P7" s="9"/>
       <c r="Q7" s="14"/>
-      <c r="R7" s="7"/>
+      <c r="R7" s="14"/>
       <c r="S7" s="7"/>
-      <c r="U7" s="9"/>
-      <c r="V7" s="7"/>
-    </row>
-    <row r="8" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T7" s="7"/>
+      <c r="V7" s="9"/>
+      <c r="W7" s="7"/>
+    </row>
+    <row r="8" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="15"/>
       <c r="B8" s="15"/>
       <c r="C8" s="15"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="7"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="2"/>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="9" t="s">
+      <c r="K8" s="7"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="M8" s="7"/>
-      <c r="O8" s="9"/>
-      <c r="P8" s="14"/>
+      <c r="N8" s="7"/>
+      <c r="P8" s="9"/>
       <c r="Q8" s="14"/>
-      <c r="R8" s="7"/>
+      <c r="R8" s="14"/>
       <c r="S8" s="7"/>
-      <c r="U8" s="9"/>
-      <c r="V8" s="7"/>
-    </row>
-    <row r="9" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T8" s="7"/>
+      <c r="V8" s="9"/>
+      <c r="W8" s="7"/>
+    </row>
+    <row r="9" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="15"/>
       <c r="B9" s="15"/>
       <c r="C9" s="15"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="7"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="3"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="9" t="s">
+      <c r="K9" s="7"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="M9" s="7"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="14"/>
+      <c r="N9" s="7"/>
+      <c r="P9" s="9"/>
       <c r="Q9" s="14"/>
-      <c r="R9" s="7"/>
+      <c r="R9" s="14"/>
       <c r="S9" s="7"/>
-      <c r="U9" s="9"/>
-      <c r="V9" s="7"/>
-    </row>
-    <row r="10" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T9" s="7"/>
+      <c r="V9" s="9"/>
+      <c r="W9" s="7"/>
+    </row>
+    <row r="10" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="15"/>
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="7"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="2"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="9" t="s">
+      <c r="K10" s="7"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="M10" s="7"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="14"/>
+      <c r="N10" s="7"/>
+      <c r="P10" s="9"/>
       <c r="Q10" s="14"/>
-      <c r="R10" s="7"/>
+      <c r="R10" s="14"/>
       <c r="S10" s="7"/>
-      <c r="U10" s="9"/>
-      <c r="V10" s="7"/>
-    </row>
-    <row r="11" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T10" s="7"/>
+      <c r="V10" s="9"/>
+      <c r="W10" s="7"/>
+    </row>
+    <row r="11" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="15"/>
       <c r="B11" s="15"/>
       <c r="C11" s="15"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="7"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="2"/>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="9" t="s">
+      <c r="K11" s="7"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="M11" s="7"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="14"/>
+      <c r="N11" s="7"/>
+      <c r="P11" s="9"/>
       <c r="Q11" s="14"/>
-      <c r="R11" s="7"/>
+      <c r="R11" s="14"/>
       <c r="S11" s="7"/>
-      <c r="U11" s="9"/>
-      <c r="V11" s="7"/>
-    </row>
-    <row r="12" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T11" s="7"/>
+      <c r="V11" s="9"/>
+      <c r="W11" s="7"/>
+    </row>
+    <row r="12" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="15"/>
       <c r="B12" s="15"/>
       <c r="C12" s="15"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="7"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="2"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="9" t="s">
+      <c r="K12" s="7"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="M12" s="7"/>
-      <c r="O12" s="9"/>
-      <c r="P12" s="14"/>
+      <c r="N12" s="7"/>
+      <c r="P12" s="9"/>
       <c r="Q12" s="14"/>
-      <c r="R12" s="7"/>
+      <c r="R12" s="14"/>
       <c r="S12" s="7"/>
-      <c r="U12" s="9"/>
-      <c r="V12" s="7"/>
-    </row>
-    <row r="13" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T12" s="7"/>
+      <c r="V12" s="9"/>
+      <c r="W12" s="7"/>
+    </row>
+    <row r="13" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="15"/>
       <c r="B13" s="15"/>
       <c r="C13" s="15"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="7"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="2"/>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="9" t="s">
+      <c r="K13" s="7"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="M13" s="7"/>
-      <c r="O13" s="9"/>
-      <c r="P13" s="14"/>
+      <c r="N13" s="7"/>
+      <c r="P13" s="9"/>
       <c r="Q13" s="14"/>
-      <c r="R13" s="7"/>
+      <c r="R13" s="14"/>
       <c r="S13" s="7"/>
-      <c r="U13" s="9"/>
-      <c r="V13" s="7"/>
-    </row>
-    <row r="14" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T13" s="7"/>
+      <c r="V13" s="9"/>
+      <c r="W13" s="7"/>
+    </row>
+    <row r="14" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="15"/>
       <c r="B14" s="15"/>
       <c r="C14" s="15"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="7"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="2"/>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="9" t="s">
+      <c r="K14" s="7"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="M14" s="7"/>
-      <c r="O14" s="9"/>
-      <c r="P14" s="14"/>
+      <c r="N14" s="7"/>
+      <c r="P14" s="9"/>
       <c r="Q14" s="14"/>
-      <c r="R14" s="7"/>
+      <c r="R14" s="14"/>
       <c r="S14" s="7"/>
-      <c r="U14" s="9"/>
-      <c r="V14" s="7"/>
-    </row>
-    <row r="15" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T14" s="7"/>
+      <c r="V14" s="9"/>
+      <c r="W14" s="7"/>
+    </row>
+    <row r="15" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="15"/>
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="7"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="2"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="9" t="s">
+      <c r="K15" s="7"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="M15" s="7"/>
-      <c r="O15" s="9"/>
-      <c r="P15" s="14"/>
+      <c r="N15" s="7"/>
+      <c r="P15" s="9"/>
       <c r="Q15" s="14"/>
-      <c r="R15" s="7"/>
+      <c r="R15" s="14"/>
       <c r="S15" s="7"/>
-      <c r="U15" s="9"/>
-      <c r="V15" s="7"/>
-    </row>
-    <row r="16" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T15" s="7"/>
+      <c r="V15" s="9"/>
+      <c r="W15" s="7"/>
+    </row>
+    <row r="16" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="15"/>
       <c r="B16" s="15"/>
       <c r="C16" s="15"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="7"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="2"/>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="9" t="s">
+      <c r="K16" s="7"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="M16" s="7"/>
-      <c r="O16" s="9"/>
-      <c r="P16" s="14"/>
+      <c r="N16" s="7"/>
+      <c r="P16" s="9"/>
       <c r="Q16" s="14"/>
-      <c r="R16" s="7"/>
+      <c r="R16" s="14"/>
       <c r="S16" s="7"/>
-      <c r="U16" s="9"/>
-      <c r="V16" s="7"/>
-    </row>
-    <row r="17" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T16" s="7"/>
+      <c r="V16" s="9"/>
+      <c r="W16" s="7"/>
+    </row>
+    <row r="17" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="15"/>
       <c r="B17" s="15"/>
       <c r="C17" s="15"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="7"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="4"/>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="9" t="s">
+      <c r="K17" s="7"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="M17" s="7"/>
-      <c r="O17" s="9"/>
-      <c r="P17" s="14"/>
+      <c r="N17" s="7"/>
+      <c r="P17" s="9"/>
       <c r="Q17" s="14"/>
-      <c r="R17" s="7"/>
+      <c r="R17" s="14"/>
       <c r="S17" s="7"/>
-      <c r="U17" s="9"/>
-      <c r="V17" s="7"/>
-    </row>
-    <row r="18" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T17" s="7"/>
+      <c r="V17" s="9"/>
+      <c r="W17" s="7"/>
+    </row>
+    <row r="18" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="16"/>
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
-      <c r="D18" s="18"/>
-      <c r="F18" s="7"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="18"/>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
-    </row>
-    <row r="19" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K18" s="7"/>
+    </row>
+    <row r="19" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="16"/>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
-      <c r="D19" s="18"/>
-      <c r="F19" s="7"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="18"/>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
-    </row>
-    <row r="20" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K19" s="7"/>
+    </row>
+    <row r="20" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="16"/>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
-      <c r="D20" s="18"/>
-      <c r="F20" s="7"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="18"/>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
-    </row>
-    <row r="21" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K20" s="7"/>
+    </row>
+    <row r="21" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="16"/>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
-      <c r="D21" s="18"/>
-      <c r="F21" s="7"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="18"/>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
       <c r="J21" s="7"/>
-    </row>
-    <row r="22" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K21" s="7"/>
+    </row>
+    <row r="22" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="16"/>
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
-      <c r="D22" s="18"/>
-      <c r="F22" s="7"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="18"/>
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
-    </row>
-    <row r="23" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K22" s="7"/>
+    </row>
+    <row r="23" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="16"/>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
-      <c r="D23" s="18"/>
-      <c r="F23" s="7"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="18"/>
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
-    </row>
-    <row r="24" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K23" s="7"/>
+    </row>
+    <row r="24" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="16"/>
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
-      <c r="D24" s="18"/>
-      <c r="F24" s="7"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="18"/>
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
-    </row>
-    <row r="25" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K24" s="7"/>
+    </row>
+    <row r="25" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="16"/>
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
-      <c r="D25" s="18"/>
-      <c r="F25" s="7"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="18"/>
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
       <c r="J25" s="7"/>
-    </row>
-    <row r="26" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K25" s="7"/>
+    </row>
+    <row r="26" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="16"/>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
-      <c r="D26" s="18"/>
-      <c r="F26" s="7"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="18"/>
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
       <c r="J26" s="7"/>
-    </row>
-    <row r="27" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K26" s="7"/>
+    </row>
+    <row r="27" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="16"/>
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
-      <c r="D27" s="18"/>
-      <c r="F27" s="7"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="18"/>
       <c r="G27" s="7"/>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
       <c r="J27" s="7"/>
-    </row>
-    <row r="28" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K27" s="7"/>
+    </row>
+    <row r="28" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="16"/>
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
-      <c r="D28" s="18"/>
-      <c r="F28" s="7"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="18"/>
       <c r="G28" s="7"/>
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
       <c r="J28" s="7"/>
-    </row>
-    <row r="29" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K28" s="7"/>
+    </row>
+    <row r="29" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="16"/>
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
-      <c r="D29" s="18"/>
-      <c r="F29" s="7"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="18"/>
       <c r="G29" s="7"/>
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
       <c r="J29" s="7"/>
-    </row>
-    <row r="30" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K29" s="7"/>
+    </row>
+    <row r="30" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="16"/>
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
-      <c r="D30" s="18"/>
-      <c r="F30" s="7"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="18"/>
       <c r="G30" s="7"/>
       <c r="H30" s="7"/>
       <c r="I30" s="7"/>
       <c r="J30" s="7"/>
-    </row>
-    <row r="31" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K30" s="7"/>
+    </row>
+    <row r="31" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="16"/>
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
-      <c r="D31" s="18"/>
-      <c r="F31" s="7"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="18"/>
       <c r="G31" s="7"/>
       <c r="H31" s="7"/>
       <c r="I31" s="7"/>
       <c r="J31" s="7"/>
-    </row>
-    <row r="32" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K31" s="7"/>
+    </row>
+    <row r="32" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="16"/>
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
-      <c r="D32" s="18"/>
-      <c r="F32" s="7"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="18"/>
       <c r="G32" s="7"/>
       <c r="H32" s="7"/>
       <c r="I32" s="7"/>
       <c r="J32" s="7"/>
-    </row>
-    <row r="33" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K32" s="7"/>
+    </row>
+    <row r="33" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="16"/>
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
-      <c r="D33" s="18"/>
-      <c r="F33" s="7"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="18"/>
       <c r="G33" s="7"/>
       <c r="H33" s="7"/>
       <c r="I33" s="7"/>
       <c r="J33" s="7"/>
-    </row>
-    <row r="34" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K33" s="7"/>
+    </row>
+    <row r="34" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="16"/>
       <c r="B34" s="16"/>
       <c r="C34" s="16"/>
-      <c r="D34" s="18"/>
-      <c r="F34" s="7"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="18"/>
       <c r="G34" s="7"/>
       <c r="H34" s="7"/>
       <c r="I34" s="7"/>
       <c r="J34" s="7"/>
-    </row>
-    <row r="35" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K34" s="7"/>
+    </row>
+    <row r="35" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="16"/>
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
-      <c r="D35" s="18"/>
-      <c r="F35" s="7"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="18"/>
       <c r="G35" s="7"/>
       <c r="H35" s="7"/>
       <c r="I35" s="7"/>
       <c r="J35" s="7"/>
-    </row>
-    <row r="36" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K35" s="7"/>
+    </row>
+    <row r="36" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="16"/>
       <c r="B36" s="16"/>
       <c r="C36" s="16"/>
-      <c r="D36" s="18"/>
-      <c r="F36" s="7"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="18"/>
       <c r="G36" s="7"/>
       <c r="H36" s="7"/>
       <c r="I36" s="7"/>
       <c r="J36" s="7"/>
-    </row>
-    <row r="37" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K36" s="7"/>
+    </row>
+    <row r="37" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="16"/>
       <c r="B37" s="16"/>
       <c r="C37" s="16"/>
-      <c r="D37" s="18"/>
-      <c r="F37" s="7"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="18"/>
       <c r="G37" s="7"/>
       <c r="H37" s="7"/>
       <c r="I37" s="7"/>
       <c r="J37" s="7"/>
-    </row>
-    <row r="40" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="K37" s="7"/>
+    </row>
+    <row r="40" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="100" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="101" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="102" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6552,12 +6607,12 @@
     <row r="111" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="AC1:AD1"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="F1:J1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="O1:S1"/>
-    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="G1:K1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="P1:T1"/>
+    <mergeCell ref="V1:W1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6655,10 +6710,10 @@
         <v>8</v>
       </c>
       <c r="L2" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="M2" s="10" t="s">
         <v>72</v>
-      </c>
-      <c r="M2" s="10" t="s">
-        <v>73</v>
       </c>
       <c r="O2" s="10" t="s">
         <v>57</v>
@@ -6667,7 +6722,7 @@
         <v>65</v>
       </c>
       <c r="Q2" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R2" s="10" t="s">
         <v>31</v>
@@ -6767,7 +6822,7 @@
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
       <c r="O5" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="P5" s="14"/>
       <c r="Q5" s="14"/>
@@ -6791,7 +6846,7 @@
       <c r="L6" s="7"/>
       <c r="M6" s="7"/>
       <c r="O6" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="P6" s="14"/>
       <c r="Q6" s="14"/>
@@ -7131,13 +7186,13 @@
     </row>
     <row r="2" spans="1:22" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>31</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>31</v>
@@ -7169,7 +7224,7 @@
         <v>65</v>
       </c>
       <c r="P2" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q2" s="10" t="s">
         <v>31</v>
@@ -7194,7 +7249,7 @@
       </c>
       <c r="D3" s="24"/>
       <c r="E3" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>53</v>
@@ -7232,7 +7287,7 @@
       </c>
       <c r="D4" s="24"/>
       <c r="E4" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>38</v>
@@ -7270,7 +7325,7 @@
       </c>
       <c r="D5" s="24"/>
       <c r="E5" s="25" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="7"/>
@@ -7282,7 +7337,7 @@
       </c>
       <c r="L5" s="7"/>
       <c r="N5" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O5" s="14"/>
       <c r="P5" s="14"/>
@@ -7299,7 +7354,7 @@
       <c r="C6" s="9"/>
       <c r="D6" s="24"/>
       <c r="E6" s="25" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="7"/>
@@ -7311,7 +7366,7 @@
       </c>
       <c r="L6" s="7"/>
       <c r="N6" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O6" s="14"/>
       <c r="P6" s="14"/>
@@ -7326,7 +7381,7 @@
       <c r="C7" s="9"/>
       <c r="D7" s="24"/>
       <c r="E7" s="25" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="7"/>
@@ -7351,7 +7406,7 @@
       <c r="C8" s="9"/>
       <c r="D8" s="24"/>
       <c r="E8" s="25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="7"/>
@@ -7376,7 +7431,7 @@
       <c r="C9" s="9"/>
       <c r="D9" s="24"/>
       <c r="E9" s="25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F9" s="8"/>
       <c r="G9" s="7"/>
